--- a/Missing Values.xlsx
+++ b/Missing Values.xlsx
@@ -1,40 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Yashu\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC805B4D-1392-483D-9549-7A4E88858D9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{468806E3-1EDF-4A3C-A265-997942881FC3}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Sheet1!$A$1:$H$51</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -104,12 +82,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -118,6 +97,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -135,7 +120,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -158,34 +143,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+  <cellXfs count="9">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -196,10 +199,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -226,116 +229,82 @@
         <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -347,197 +316,206 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{416D57BF-CD2F-40E4-BFD6-E64F379781DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" style="2"/>
-    <col min="2" max="2" width="19.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17" style="2"/>
-    <col min="4" max="4" width="11" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="17" style="2"/>
+    <col min="1" max="1" style="6" width="17.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="19.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="17.005" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="11.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -548,23 +526,23 @@
       </c>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="4">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="4">
         <v>25</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="4">
@@ -575,23 +553,23 @@
       </c>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="4">
         <v>5</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="4">
         <v>30</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="4">
@@ -602,23 +580,23 @@
       </c>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="4">
         <v>35</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="4">
@@ -629,23 +607,23 @@
       </c>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="4">
         <v>22</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="E5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G5" s="4">
@@ -656,23 +634,23 @@
       </c>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="4">
         <v>10</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="4">
         <v>40</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="E6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G6" s="4">
@@ -683,23 +661,23 @@
       </c>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="4">
         <v>28</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="4">
@@ -710,23 +688,23 @@
       </c>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="4">
         <v>12</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="4">
         <v>45</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="E8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="4">
@@ -737,23 +715,23 @@
       </c>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="4">
         <v>3</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="4">
         <v>26</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="E9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G9" s="4">
@@ -764,23 +742,23 @@
       </c>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="4">
         <v>7</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="4">
         <v>33</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -791,23 +769,23 @@
       </c>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="4">
         <v>4</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="4">
         <v>29</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="4" t="s">
+      <c r="E11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G11" s="4">
@@ -818,23 +796,23 @@
       </c>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" s="4">
         <v>5</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="4">
         <v>27</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="4" t="s">
+      <c r="E12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="4">
@@ -845,23 +823,23 @@
       </c>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" s="4">
         <v>9</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="5" t="s">
         <v>16</v>
       </c>
       <c r="G13" s="4">
@@ -872,23 +850,23 @@
       </c>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14" s="4">
         <v>2</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="4">
         <v>24</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="4" t="s">
+      <c r="E14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G14" s="1" t="s">
@@ -899,23 +877,23 @@
       </c>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15" s="4">
         <v>11</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="4">
         <v>42</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="E15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G15" s="4">
@@ -926,23 +904,23 @@
       </c>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="4">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="4">
         <v>31</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="4">
@@ -953,23 +931,23 @@
       </c>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="4">
         <v>16</v>
       </c>
       <c r="B17" s="4">
         <v>13</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="4">
         <v>46</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="4" t="s">
+      <c r="E17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="1" t="s">
@@ -980,23 +958,23 @@
       </c>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="4">
         <v>17</v>
       </c>
       <c r="B18" s="4">
         <v>3</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="4">
         <v>23</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="4" t="s">
+      <c r="E18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>16</v>
       </c>
       <c r="G18" s="4">
@@ -1007,23 +985,23 @@
       </c>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="4">
         <v>18</v>
       </c>
       <c r="B19" s="4">
         <v>8</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="4">
         <v>34</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G19" s="4">
@@ -1034,23 +1012,23 @@
       </c>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="4">
         <v>19</v>
       </c>
       <c r="B20" s="4">
         <v>4</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="4">
         <v>28</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="4" t="s">
+      <c r="E20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G20" s="1" t="s">
@@ -1061,23 +1039,23 @@
       </c>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="4">
         <v>20</v>
       </c>
       <c r="B21" s="4">
         <v>7</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F21" s="4" t="s">
+      <c r="E21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="4">
@@ -1088,23 +1066,23 @@
       </c>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="4">
         <v>21</v>
       </c>
       <c r="B22" s="4">
         <v>10</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="4">
         <v>38</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="5" t="s">
         <v>16</v>
       </c>
       <c r="G22" s="4">
@@ -1115,23 +1093,23 @@
       </c>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="4">
         <v>22</v>
       </c>
       <c r="B23" s="4">
         <v>2</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="4">
         <v>26</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="4" t="s">
+      <c r="E23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G23" s="4">
@@ -1142,23 +1120,23 @@
       </c>
       <c r="I23" s="3"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="4">
         <v>23</v>
       </c>
       <c r="B24" s="4">
         <v>9</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F24" s="4" t="s">
+      <c r="E24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G24" s="4">
@@ -1169,23 +1147,23 @@
       </c>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="4">
         <v>24</v>
       </c>
       <c r="B25" s="4">
         <v>5</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D25" s="4">
         <v>29</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G25" s="4">
@@ -1196,23 +1174,23 @@
       </c>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="4">
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D26" s="4">
         <v>43</v>
       </c>
-      <c r="E26" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="4" t="s">
+      <c r="E26" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="4">
@@ -1223,23 +1201,23 @@
       </c>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="4">
         <v>26</v>
       </c>
       <c r="B27" s="4">
         <v>6</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D27" s="4">
         <v>30</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="1" t="s">
+      <c r="E27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G27" s="4">
@@ -1250,23 +1228,23 @@
       </c>
       <c r="I27" s="3"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="4">
         <v>27</v>
       </c>
       <c r="B28" s="4">
         <v>11</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D28" s="4">
         <v>39</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G28" s="4">
@@ -1277,23 +1255,23 @@
       </c>
       <c r="I28" s="3"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="4">
         <v>28</v>
       </c>
       <c r="B29" s="4">
         <v>1</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="4">
         <v>22</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="4" t="s">
+      <c r="E29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G29" s="4">
@@ -1304,23 +1282,23 @@
       </c>
       <c r="I29" s="3"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="4">
         <v>29</v>
       </c>
       <c r="B30" s="4">
         <v>8</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D30" s="4">
         <v>35</v>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="4" t="s">
+      <c r="E30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G30" s="4">
@@ -1331,23 +1309,23 @@
       </c>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="4">
         <v>30</v>
       </c>
       <c r="B31" s="4">
         <v>7</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="4">
@@ -1358,23 +1336,23 @@
       </c>
       <c r="I31" s="3"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="4">
         <v>31</v>
       </c>
       <c r="B32" s="4">
         <v>3</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D32" s="4">
         <v>25</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F32" s="4" t="s">
+      <c r="E32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="5" t="s">
         <v>16</v>
       </c>
       <c r="G32" s="4">
@@ -1385,23 +1363,23 @@
       </c>
       <c r="I32" s="3"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="4">
         <v>32</v>
       </c>
       <c r="B33" s="4">
         <v>10</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D33" s="4">
         <v>40</v>
       </c>
-      <c r="E33" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F33" s="4" t="s">
+      <c r="E33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G33" s="4">
@@ -1412,23 +1390,23 @@
       </c>
       <c r="I33" s="3"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="4">
         <v>33</v>
       </c>
       <c r="B34" s="4">
         <v>2</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D34" s="4">
         <v>27</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G34" s="1" t="s">
@@ -1439,23 +1417,23 @@
       </c>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="4">
         <v>34</v>
       </c>
       <c r="B35" s="4">
         <v>9</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D35" s="4">
         <v>38</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" s="4" t="s">
+      <c r="E35" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G35" s="4">
@@ -1466,23 +1444,23 @@
       </c>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="4">
         <v>35</v>
       </c>
       <c r="B36" s="4">
         <v>6</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D36" s="4">
         <v>31</v>
       </c>
-      <c r="E36" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" s="4" t="s">
+      <c r="E36" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="1" t="s">
@@ -1493,23 +1471,23 @@
       </c>
       <c r="I36" s="3"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="4">
         <v>36</v>
       </c>
       <c r="B37" s="4">
         <v>12</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D37" s="4">
         <v>45</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="F37" s="5" t="s">
         <v>16</v>
       </c>
       <c r="G37" s="4">
@@ -1520,23 +1498,23 @@
       </c>
       <c r="I37" s="3"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="4">
         <v>37</v>
       </c>
       <c r="B38" s="4">
         <v>4</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D38" s="4">
         <v>28</v>
       </c>
-      <c r="E38" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38" s="4" t="s">
+      <c r="E38" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G38" s="4">
@@ -1547,23 +1525,23 @@
       </c>
       <c r="I38" s="3"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="4">
         <v>38</v>
       </c>
       <c r="B39" s="4">
         <v>7</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D39" s="4">
         <v>33</v>
       </c>
-      <c r="E39" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F39" s="4" t="s">
+      <c r="E39" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G39" s="4">
@@ -1574,23 +1552,23 @@
       </c>
       <c r="I39" s="3"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="4">
         <v>39</v>
       </c>
       <c r="B40" s="4">
         <v>5</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="F40" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G40" s="4">
@@ -1601,23 +1579,23 @@
       </c>
       <c r="I40" s="3"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="4">
         <v>40</v>
       </c>
       <c r="B41" s="4">
         <v>11</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D41" s="4">
         <v>42</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" s="4" t="s">
+      <c r="E41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="4">
@@ -1628,23 +1606,23 @@
       </c>
       <c r="I41" s="3"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="4">
         <v>41</v>
       </c>
       <c r="B42" s="4">
         <v>2</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D42" s="4">
         <v>24</v>
       </c>
-      <c r="E42" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F42" s="4" t="s">
+      <c r="E42" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="5" t="s">
         <v>16</v>
       </c>
       <c r="G42" s="1" t="s">
@@ -1655,23 +1633,23 @@
       </c>
       <c r="I42" s="3"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="4">
         <v>42</v>
       </c>
       <c r="B43" s="4">
         <v>10</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D43" s="4">
         <v>41</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="F43" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G43" s="4">
@@ -1682,23 +1660,23 @@
       </c>
       <c r="I43" s="3"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="4">
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D44" s="4">
         <v>26</v>
       </c>
-      <c r="E44" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F44" s="4" t="s">
+      <c r="E44" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G44" s="4">
@@ -1709,23 +1687,23 @@
       </c>
       <c r="I44" s="3"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="4">
         <v>44</v>
       </c>
       <c r="B45" s="4">
         <v>8</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D45" s="4">
         <v>34</v>
       </c>
-      <c r="E45" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F45" s="4" t="s">
+      <c r="E45" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G45" s="4">
@@ -1736,23 +1714,23 @@
       </c>
       <c r="I45" s="3"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="4">
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D46" s="4">
         <v>29</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="E46" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="F46" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="4">
@@ -1763,23 +1741,23 @@
       </c>
       <c r="I46" s="3"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="4">
         <v>46</v>
       </c>
       <c r="B47" s="4">
         <v>12</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E47" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F47" s="4" t="s">
+      <c r="E47" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="5" t="s">
         <v>16</v>
       </c>
       <c r="G47" s="4">
@@ -1790,23 +1768,23 @@
       </c>
       <c r="I47" s="3"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="4">
         <v>47</v>
       </c>
       <c r="B48" s="4">
         <v>5</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D48" s="4">
         <v>27</v>
       </c>
-      <c r="E48" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F48" s="4" t="s">
+      <c r="E48" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="5" t="s">
         <v>17</v>
       </c>
       <c r="G48" s="4">
@@ -1817,23 +1795,23 @@
       </c>
       <c r="I48" s="3"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="4">
         <v>48</v>
       </c>
       <c r="B49" s="4">
         <v>9</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D49" s="4">
         <v>36</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="E49" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="F49" s="5" t="s">
         <v>18</v>
       </c>
       <c r="G49" s="4">
@@ -1844,23 +1822,23 @@
       </c>
       <c r="I49" s="3"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="4">
         <v>49</v>
       </c>
       <c r="B50" s="4">
         <v>4</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D50" s="4">
         <v>28</v>
       </c>
-      <c r="E50" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F50" s="4" t="s">
+      <c r="E50" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="5" t="s">
         <v>19</v>
       </c>
       <c r="G50" s="4">
@@ -1871,23 +1849,23 @@
       </c>
       <c r="I50" s="3"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="4">
         <v>50</v>
       </c>
       <c r="B51" s="4">
         <v>7</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D51" s="4">
         <v>33</v>
       </c>
-      <c r="E51" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F51" s="4" t="s">
+      <c r="E51" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="4">
@@ -1900,6 +1878,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>